--- a/الوحدات السكنية.xlsx
+++ b/الوحدات السكنية.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliAy\نظام مشروع سكن\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliAy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8F8D59-7B2D-4161-A236-D776054B83B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EEAC56-5024-4B31-B180-1F7511E7B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B33624B6-7704-4DF2-AE6A-49675E301B17}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11295" xr2:uid="{B33624B6-7704-4DF2-AE6A-49675E301B17}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -3957,7 +3957,7 @@
   <dimension ref="A1:D1135"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection sqref="A1:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
